--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value699.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value699.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1409510795540244</v>
+        <v>1.008931159973145</v>
       </c>
       <c r="B1">
-        <v>0.09514273397411567</v>
+        <v>1.221996903419495</v>
       </c>
       <c r="C1">
-        <v>0.07537638188477273</v>
+        <v>1.650306820869446</v>
       </c>
       <c r="D1">
-        <v>0.0743530034532718</v>
+        <v>3.165316581726074</v>
       </c>
       <c r="E1">
-        <v>0.08182798617591146</v>
+        <v>2.506096601486206</v>
       </c>
     </row>
   </sheetData>
